--- a/論理設計.xlsx
+++ b/論理設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181148\Desktop\知立\デパレ間口ソースコード\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90181586\Downloads\デパレ間口ソースコード\デパレ間口ソースコード\20251107\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF2AC2-70F4-4054-9122-5EF8EDEAB3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D04111C-13B0-4EE9-B377-7ED41654EFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6B7D12C-E54A-4C50-919A-73BBC6AC877D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6B7D12C-E54A-4C50-919A-73BBC6AC877D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Line</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Line_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Line_id </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -219,9 +211,6 @@
       <t>ザイコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>car_model_id</t>
   </si>
   <si>
     <t>line_frontage</t>
@@ -404,10 +393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>line_frontage_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>rack_position:1～4、フローラックの右上、左上、右下、左下に対応</t>
     <rPh sb="25" eb="27">
       <t>ミギウエ</t>
@@ -424,6 +409,14 @@
     <rPh sb="37" eb="39">
       <t>タイオウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">line_id </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rack_position_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3000,38 +2993,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FDE2D1-D44A-422F-A2AA-E292FE9DDD41}">
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="20.125" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="63.75" customWidth="1"/>
-    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" customWidth="1"/>
+    <col min="6" max="6" width="14.8984375" customWidth="1"/>
+    <col min="7" max="7" width="20.09765625" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="18.69921875" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" customWidth="1"/>
+    <col min="11" max="11" width="63.69921875" customWidth="1"/>
+    <col min="12" max="12" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -3039,88 +3032,88 @@
       <c r="I3" s="16"/>
       <c r="J3" s="17"/>
       <c r="K3" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="5"/>
@@ -3128,113 +3121,113 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C10" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -3242,133 +3235,133 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C13" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C14" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C18" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C19" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
       <c r="G26" s="4"/>
     </row>
   </sheetData>
@@ -3382,6 +3375,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8b195fcf-04ef-4e48-bb0a-63827f2a9b20">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9866ba2b-f920-47a0-83e8-d05057c05918" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003270DDE72FE41A4AB587228022EB175A" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ff58f1cd62132fcaa20e817d91b7513f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b195fcf-04ef-4e48-bb0a-63827f2a9b20" xmlns:ns3="9866ba2b-f920-47a0-83e8-d05057c05918" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29fb94caaddd46a5dda17ce5060df6b2" ns2:_="" ns3:_="">
     <xsd:import namespace="8b195fcf-04ef-4e48-bb0a-63827f2a9b20"/>
@@ -3622,34 +3635,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8b195fcf-04ef-4e48-bb0a-63827f2a9b20">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9866ba2b-f920-47a0-83e8-d05057c05918" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9F60DD9-A83C-4AF1-888F-3B8F5A752039}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A152C1E-F4DA-4B65-9B0D-005260F965CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b195fcf-04ef-4e48-bb0a-63827f2a9b20"/>
+    <ds:schemaRef ds:uri="9866ba2b-f920-47a0-83e8-d05057c05918"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66C46DF9-DC42-48E0-A2F8-4D1833F643DB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66C46DF9-DC42-48E0-A2F8-4D1833F643DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A152C1E-F4DA-4B65-9B0D-005260F965CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9F60DD9-A83C-4AF1-888F-3B8F5A752039}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b195fcf-04ef-4e48-bb0a-63827f2a9b20"/>
+    <ds:schemaRef ds:uri="9866ba2b-f920-47a0-83e8-d05057c05918"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>